--- a/tracks.xlsx
+++ b/tracks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,45 +451,50 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Popularity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Danceability</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Acousticness</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Energy</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Instrumentalness</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Liveness</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Valence</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Loudness</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Speechiness</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -498,631 +503,2251 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>芽ぐみの雨</t>
+          <t>君にクレッシェンド</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>雪ノ下雪乃(CV.早見沙織)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.62295</v>
+        <v>4.09245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.357</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0247</v>
+        <v>0.505</v>
       </c>
       <c r="F2" t="n">
-        <v>0.913</v>
+        <v>0.0643</v>
       </c>
       <c r="G2" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.0919</v>
-      </c>
       <c r="I2" t="n">
-        <v>0.467</v>
+        <v>0.0788</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.161</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.102</v>
+        <v>-3.606</v>
       </c>
       <c r="L2" t="n">
-        <v>181.961</v>
+        <v>0.0297</v>
+      </c>
+      <c r="M2" t="n">
+        <v>174.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dear My Firend -まだ見ぬ未来へ-</t>
+          <t>星が降るユメ (Fate/Grand Order -絶対魔獣戦線バビロニア-)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ELISA</t>
+          <t>KOKO!</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.121116666666667</v>
+        <v>4.162833333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.589</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0239</v>
+        <v>0.625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.911</v>
+        <v>0.0037</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0917</v>
+        <v>0.00118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.742</v>
+        <v>0.392</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.325</v>
+        <v>0.668</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0358</v>
+        <v>-2.57</v>
       </c>
       <c r="L3" t="n">
-        <v>129.014</v>
+        <v>0.037</v>
+      </c>
+      <c r="M3" t="n">
+        <v>122.981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Behind (with Yuna Yoshino &amp; Lynn)</t>
+          <t>Not a Hero - Japanese Version</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karin Isobe</t>
+          <t>Goomin Nam</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.596</v>
+        <v>3.90845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.516</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.371</v>
+        <v>0.44</v>
       </c>
       <c r="F4" t="n">
-        <v>0.727</v>
+        <v>0.601</v>
       </c>
       <c r="G4" t="n">
-        <v>1.45e-05</v>
+        <v>0.345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.67</v>
+        <v>0.0741</v>
       </c>
       <c r="J4" t="n">
-        <v>-6.619</v>
+        <v>0.191</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0294</v>
+        <v>-9.558999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>144.963</v>
+        <v>0.0394</v>
+      </c>
+      <c r="M4" t="n">
+        <v>141.542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ユキトキ</t>
+          <t>The Rumbling</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.482</v>
+        <v>3.679983333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.437</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0921</v>
+        <v>0.459</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89</v>
+        <v>5.62e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.878</v>
       </c>
       <c r="H5" t="n">
-        <v>0.122</v>
+        <v>0.000307</v>
       </c>
       <c r="I5" t="n">
-        <v>0.628</v>
+        <v>0.371</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.043</v>
+        <v>0.494</v>
       </c>
       <c r="K5" t="n">
-        <v>0.108</v>
+        <v>-1.399</v>
       </c>
       <c r="L5" t="n">
-        <v>164.946</v>
+        <v>0.0688</v>
+      </c>
+      <c r="M5" t="n">
+        <v>144.852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dokuhaku</t>
+          <t>勇者</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maaya Sakamoto</t>
+          <t>YOASOBI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.727116666666666</v>
+        <v>3.237783333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.486</v>
+        <v>76</v>
       </c>
       <c r="E6" t="n">
-        <v>0.242</v>
+        <v>0.655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.821</v>
+        <v>0.0351</v>
       </c>
       <c r="G6" t="n">
-        <v>1.15e-05</v>
+        <v>0.907</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08069999999999999</v>
+        <v>1.37e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.314</v>
+        <v>0.15</v>
       </c>
       <c r="J6" t="n">
-        <v>-4.484</v>
+        <v>0.506</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0529</v>
+        <v>-3.868</v>
       </c>
       <c r="L6" t="n">
-        <v>102.99</v>
+        <v>0.0488</v>
+      </c>
+      <c r="M6" t="n">
+        <v>103.968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>風に吹かれて</t>
+          <t>LAST STARDUST</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>福原 遥</t>
+          <t>Aimer</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.547116666666667</v>
+        <v>5.311116666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.388</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>0.291</v>
+        <v>0.473</v>
       </c>
       <c r="F7" t="n">
-        <v>0.611</v>
+        <v>0.0105</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="H7" t="n">
-        <v>0.063</v>
+        <v>2.87e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.401</v>
+        <v>0.13</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.724</v>
+        <v>0.223</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0334</v>
+        <v>-5.13</v>
       </c>
       <c r="L7" t="n">
-        <v>179.933</v>
+        <v>0.0455</v>
+      </c>
+      <c r="M7" t="n">
+        <v>121.963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>春擬き</t>
+          <t>カナリア</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>ReoNa</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.518216666666667</v>
+        <v>4.784000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00814</v>
+        <v>0.659</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.894</v>
       </c>
       <c r="G8" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.359</v>
-      </c>
       <c r="I8" t="n">
-        <v>0.674</v>
+        <v>0.0939</v>
       </c>
       <c r="J8" t="n">
-        <v>-4.038</v>
+        <v>0.445</v>
       </c>
       <c r="K8" t="n">
-        <v>0.096</v>
+        <v>-9.282</v>
       </c>
       <c r="L8" t="n">
-        <v>174.031</v>
+        <v>0.0322</v>
+      </c>
+      <c r="M8" t="n">
+        <v>80.015</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PSI-missing</t>
+          <t>ヒカリ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>川田まみ</t>
+          <t>Lilas Ikuta</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.35845</v>
+        <v>4.08055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.519</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00706</v>
+        <v>0.439</v>
       </c>
       <c r="F9" t="n">
-        <v>0.961</v>
+        <v>0.278</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000266</v>
+        <v>0.667</v>
       </c>
       <c r="H9" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.451</v>
+        <v>0.119</v>
       </c>
       <c r="J9" t="n">
-        <v>-6</v>
+        <v>0.387</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07829999999999999</v>
+        <v>-4.563</v>
       </c>
       <c r="L9" t="n">
-        <v>129.973</v>
+        <v>0.03</v>
+      </c>
+      <c r="M9" t="n">
+        <v>79.63500000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>終わりの世界から</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>Hideyuki Fukasawa</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.981616666666667</v>
+        <v>4.016883333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.291</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0142</v>
+        <v>0.441</v>
       </c>
       <c r="F10" t="n">
-        <v>0.788</v>
+        <v>0.000324</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15e-05</v>
+        <v>0.772</v>
       </c>
       <c r="H10" t="n">
-        <v>0.469</v>
+        <v>0.857</v>
       </c>
       <c r="I10" t="n">
-        <v>0.235</v>
+        <v>0.119</v>
       </c>
       <c r="J10" t="n">
-        <v>-5.34</v>
+        <v>0.35</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0434</v>
+        <v>-7.166</v>
       </c>
       <c r="L10" t="n">
-        <v>147.875</v>
+        <v>0.0479</v>
+      </c>
+      <c r="M10" t="n">
+        <v>129.946</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>優しさの理由</t>
+          <t>glimmer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ChouCho</t>
+          <t>sajou no hana</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.237116666666667</v>
+        <v>3.239766666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.465</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00421</v>
+        <v>0.642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.834</v>
+        <v>0.111</v>
       </c>
       <c r="G11" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.09130000000000001</v>
-      </c>
       <c r="I11" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.303</v>
       </c>
       <c r="J11" t="n">
-        <v>-4.043</v>
+        <v>0.861</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0449</v>
+        <v>-5.482</v>
       </c>
       <c r="L11" t="n">
-        <v>177.057</v>
+        <v>0.0278</v>
+      </c>
+      <c r="M11" t="n">
+        <v>92.992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>grilletto</t>
+          <t>ライア</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GARNiDELiA</t>
+          <t>Zwei</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.14</v>
+        <v>5.58445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.525</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0128</v>
+        <v>0.486</v>
       </c>
       <c r="F12" t="n">
-        <v>0.956</v>
+        <v>0.0101</v>
       </c>
       <c r="G12" t="n">
-        <v>0.155</v>
+        <v>0.822</v>
       </c>
       <c r="H12" t="n">
-        <v>0.146</v>
+        <v>8.27e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.612</v>
+        <v>0.299</v>
       </c>
       <c r="J12" t="n">
-        <v>-2.436</v>
+        <v>0.539</v>
       </c>
       <c r="K12" t="n">
-        <v>0.135</v>
+        <v>-6.401</v>
       </c>
       <c r="L12" t="n">
-        <v>95.526</v>
+        <v>0.0371</v>
+      </c>
+      <c r="M12" t="n">
+        <v>149.911</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>eternal reality</t>
+          <t>オンリー</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fripSide</t>
+          <t>大原ゆい子</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.88245</v>
+        <v>3.84</v>
       </c>
       <c r="D13" t="n">
-        <v>0.612</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>0.388</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999</v>
+        <v>0.00188</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0181</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.288</v>
+        <v>2.68e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.181</v>
+        <v>0.149</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.237</v>
+        <v>0.68</v>
       </c>
       <c r="K13" t="n">
-        <v>0.333</v>
+        <v>-4.613</v>
       </c>
       <c r="L13" t="n">
-        <v>144.935</v>
+        <v>0.0431</v>
+      </c>
+      <c r="M13" t="n">
+        <v>150.105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>トコハナ</t>
+          <t>なにが悪い</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>結束バンド</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.415783333333334</v>
+        <v>3.789333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>0.351</v>
+        <v>52</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000195</v>
+        <v>0.59</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.00361</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000117</v>
+        <v>0.906</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06619999999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.319</v>
+        <v>0.294</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.621</v>
+        <v>0.663</v>
       </c>
       <c r="K14" t="n">
-        <v>0.161</v>
+        <v>-1.827</v>
       </c>
       <c r="L14" t="n">
-        <v>168.878</v>
+        <v>0.0357</v>
+      </c>
+      <c r="M14" t="n">
+        <v>122.053</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>オンリー</t>
+          <t>JOINT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>大原ゆい子</t>
+          <t>川田まみ</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.84</v>
+        <v>4.025116666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5649999999999999</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00188</v>
+        <v>0.489</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.00298</v>
       </c>
       <c r="G15" t="n">
-        <v>2.68e-05</v>
+        <v>0.955</v>
       </c>
       <c r="H15" t="n">
-        <v>0.149</v>
+        <v>1.82e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.68</v>
+        <v>0.284</v>
       </c>
       <c r="J15" t="n">
-        <v>-4.613</v>
+        <v>0.664</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0431</v>
+        <v>-3.89</v>
       </c>
       <c r="L15" t="n">
-        <v>150.105</v>
+        <v>0.125</v>
+      </c>
+      <c r="M15" t="n">
+        <v>179.925</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>リナリア</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>yanaginagi</t>
+          <t>まるりとりゅうが</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.226883333333333</v>
+        <v>3.836216666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>0.393</v>
+        <v>33</v>
       </c>
       <c r="E16" t="n">
-        <v>0.067</v>
+        <v>0.623</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.0648</v>
       </c>
       <c r="G16" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.74e-05</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M16" t="n">
+        <v>131.985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>あいつら全員同窓会</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ZUTOMAYO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4.241783333333333</v>
+      </c>
+      <c r="D17" t="n">
+        <v>58</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I17" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-2.836</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="M17" t="n">
+        <v>130.968</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>スカイクラッドの観測者</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>いとうかなこ</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4.593999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00287</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.000414</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-4.931</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="M18" t="n">
+        <v>167.048</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>LAST GAME</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zwei</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4.737333333333334</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-6.862</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="M19" t="n">
+        <v>151.942</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>シルシ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LiSA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.804216666666666</v>
+      </c>
+      <c r="D20" t="n">
+        <v>54</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0941</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-4.117</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="M20" t="n">
+        <v>145.991</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SAKURA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ikimonogakari</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5.874883333333333</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-5.201</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0299</v>
+      </c>
+      <c r="M21" t="n">
+        <v>150.37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Stuck on you</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nowlu</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3.093466666666667</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.62e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-7.098</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06710000000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>106.02</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>メインテーマ/眠り</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3.017783333333333</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-16.443</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="M23" t="n">
+        <v>171.943</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>First star</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>4.055116666666667</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.000381</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-8.374000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0443</v>
+      </c>
+      <c r="M24" t="n">
+        <v>143.965</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>imbalance/blue</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4.424883333333333</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-17.018</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="M25" t="n">
+        <v>139.954</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5.145116666666667</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.09329999999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-9.776999999999999</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0362</v>
+      </c>
+      <c r="M26" t="n">
+        <v>140.045</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>午後の眠り</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2.414216666666667</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-22.96</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M27" t="n">
+        <v>65.998</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>imbalance/Alice</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3.991333333333333</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0784</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-15.892</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0312</v>
+      </c>
+      <c r="M28" t="n">
+        <v>117.967</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Meant to Be</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Chewie Melodies</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.559733333333333</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-17.486</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0377</v>
+      </c>
+      <c r="M29" t="n">
+        <v>143.233</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>生命線</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ReoNa</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4.259116666666666</v>
+      </c>
+      <c r="D30" t="n">
+        <v>47</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.07770000000000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-6.158</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="M30" t="n">
+        <v>170.042</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ウィアートル</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rionos</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4.77555</v>
+      </c>
+      <c r="D31" t="n">
+        <v>42</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4.5e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-17.278</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M31" t="n">
+        <v>128.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>オレンジ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7!!</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5.835116666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-4.023</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0319</v>
+      </c>
+      <c r="M32" t="n">
+        <v>172.027</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>魔法使いの夜~メインテーマ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Hideyuki Fukasawa</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5.064666666666667</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-12.234</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0366</v>
+      </c>
+      <c r="M33" t="n">
+        <v>188.112</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ずるいよ…</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CHIHIRO</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5.995333333333334</v>
+      </c>
+      <c r="D34" t="n">
+        <v>38</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0528</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-3.638</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="M34" t="n">
+        <v>159.921</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>歌に形はないけれど</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>+α/あるふぁきゅん。</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5.494</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.96e-06</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-3.894</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>98.004</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Star Diamond</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Starlight Kuku Gumi</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4.817116666666666</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0512</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="H36" t="n">
+        <v>6.84e-05</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-3.028</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0809</v>
+      </c>
+      <c r="M36" t="n">
+        <v>160.107</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>小さな恋のうた feat.七穂</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>kobasolo</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>4.731549999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>48</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-4.945</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M37" t="n">
+        <v>185.827</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>sun will rise</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(K)NoW_NAME</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>4.416666666666667</v>
+      </c>
+      <c r="D38" t="n">
+        <v>23</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.223</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="J16" t="n">
-        <v>-5.212</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0843</v>
-      </c>
-      <c r="L16" t="n">
-        <v>174.91</v>
+      <c r="H38" t="n">
+        <v>0.000182</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-11.353</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="M38" t="n">
+        <v>151.938</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hello, shooting-star</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>moumoon</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4.627333333333334</v>
+      </c>
+      <c r="D39" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="M39" t="n">
+        <v>80.029</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lemon</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Kenshi Yonezu</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4.268450000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-4.924</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="M40" t="n">
+        <v>86.983</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Shogeki</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Yuko Ando</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3.026583333333333</v>
+      </c>
+      <c r="D41" t="n">
+        <v>63</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-4.507</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.06809999999999999</v>
+      </c>
+      <c r="M41" t="n">
+        <v>137.032</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>命に嫌われている (feat. 宵崎奏&amp;初音ミク)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>25時、ナイトコードで。</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4.532</v>
+      </c>
+      <c r="D42" t="n">
+        <v>53</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0706</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-5.456</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0388</v>
+      </c>
+      <c r="M42" t="n">
+        <v>100.019</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>炎</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LiSA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4.583333333333333</v>
+      </c>
+      <c r="D43" t="n">
+        <v>65</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-4.554</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>152.04</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Is There Still Anything That Love Can Do? (English Version)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RADWIMPS</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>6.758666666666667</v>
+      </c>
+      <c r="D44" t="n">
+        <v>38</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-6.142</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="M44" t="n">
+        <v>141.341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>remember</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Uru</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5.82355</v>
+      </c>
+      <c r="D45" t="n">
+        <v>56</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.000106</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-6.742</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M45" t="n">
+        <v>149.794</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Komm,susser Tod (Mー10 Director's Edit.Version)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Arianne</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7.774683333333333</v>
+      </c>
+      <c r="D46" t="n">
+        <v>43</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0596</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.28e-06</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-5.473</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0274</v>
+      </c>
+      <c r="M46" t="n">
+        <v>151.654</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>夜に浮かぶ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Haruna</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3.647583333333333</v>
+      </c>
+      <c r="D47" t="n">
+        <v>30</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.02e-05</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0819</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-10.735</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.0423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>179.957</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>奏(かなで)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Sukima Switch</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5.519783333333334</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="H48" t="n">
+        <v>2.57e-06</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-4.701</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="M48" t="n">
+        <v>149.907</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Bakamitai - Taxi Driver Edition</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>桐生一馬(黒田崇矢)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4.85445</v>
+      </c>
+      <c r="D49" t="n">
+        <v>60</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0507</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.378</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-7.914</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.0259</v>
+      </c>
+      <c r="M49" t="n">
+        <v>73.988</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>未来</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KOBUKURO</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>51</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-6.73</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M50" t="n">
+        <v>147.94</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>シルシ</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>LiSA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4.804216666666666</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0941</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-4.117</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="M51" t="n">
+        <v>145.991</v>
       </c>
     </row>
   </sheetData>
